--- a/_resultados/iris.data_30_10k.xlsx
+++ b/_resultados/iris.data_30_10k.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\CLionProjects\SegmentadorSOM\_resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F1C893D2-F8D5-43C9-BD21-D3CEA87ECF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082D54A0-D681-4482-A045-5C6BB5611B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="iris.data_30_10k" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -559,27 +559,7 @@
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF0070C0"/>
@@ -587,16 +567,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -929,14 +899,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AH30" sqref="AH30"/>
+    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
+      <selection activeCell="AK31" sqref="AK31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3700,13 +3670,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Iris-setosa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Iris-versicolor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Iris-virginica"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/_resultados/iris.data_30_10k.xlsx
+++ b/_resultados/iris.data_30_10k.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\CLionProjects\SegmentadorSOM\_resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082D54A0-D681-4482-A045-5C6BB5611B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B27295-7DBC-45F1-A166-69268E7690C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,7 +559,7 @@
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF0070C0"/>
@@ -577,6 +577,36 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -903,7 +933,7 @@
   <dimension ref="A1:AD30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
-      <selection activeCell="AK31" sqref="AK31"/>
+      <selection activeCell="AI34" sqref="AI34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3670,13 +3700,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:AD30">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"Iris-setosa"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Iris-versicolor"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Iris-virginica"</formula>
     </cfRule>
   </conditionalFormatting>
